--- a/TaxResearch.xlsx
+++ b/TaxResearch.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Federal/State</t>
   </si>
@@ -28,6 +29,30 @@
   </si>
   <si>
     <t>Long Term</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>http://dor.mo.gov/forms/Taxpayer%20Guide.pdf</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>The state income tax rate is graduated from taxable income of $100 to $9,000 from 1.5 percent to 5.5 percent and is 6 percent for everything over $9,000</t>
+  </si>
+  <si>
+    <t>Tax Calculator</t>
+  </si>
+  <si>
+    <t>http://dor.mo.gov/calculators/incometax/</t>
   </si>
 </sst>
 </file>
@@ -63,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -356,9 +382,12 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="138" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -367,9 +396,44 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>